--- a/biology/Médecine/Martin_Lichtenstein/Martin_Lichtenstein.xlsx
+++ b/biology/Médecine/Martin_Lichtenstein/Martin_Lichtenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Heinrich Carl von Lichtenstein (aussi connu sous le nom de Heinrich Lichtenstein) est un médecin, un explorateur et un zoologiste allemand, né le 10 janvier 1780 à Hambourg et mort le 2 septembre 1857.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est le zoologiste Anton August Heinrich Lichtenstein (1753-1816). Lichtenstein étudie la médecine à Iéna et à Helmstadt. Entre 1802 et 1806, il voyage dans le sud de l'Afrique et devient le médecin personnel du gouverneur du Cap. En 1810, il publie Reisen in südlichen Africa.
 Il obtient la chaire de zoologie de l'université de Berlin en 1811 et devient le directeur du musée zoologique de Berlin (actuellement le musée d'histoire naturelle de Berlin) en 1813 où il succède à Johann Karl Wilhelm Illiger (1775-1813).
